--- a/L08_Distribucion_normal.xlsx
+++ b/L08_Distribucion_normal.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CETECOM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B60528-1B18-4611-8BBD-AE1DACF69E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68BE941-1CF6-4CDF-B4B3-64FEB97BC0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Acticvidad 1" sheetId="7" r:id="rId1"/>
-    <sheet name="Actividad 2" sheetId="32" r:id="rId2"/>
-    <sheet name="Notas" sheetId="8" r:id="rId3"/>
-    <sheet name="Desarrollo" sheetId="34" r:id="rId4"/>
+    <sheet name="Actividad 1" sheetId="7" r:id="rId1"/>
+    <sheet name="Desarrollo" sheetId="34" r:id="rId2"/>
+    <sheet name="Actividad 2" sheetId="32" r:id="rId3"/>
+    <sheet name="Notas" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Notas!$C$1:$C$401</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Notas!$C$1:$C$401</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>Curtosis</t>
   </si>
@@ -355,6 +355,9 @@
   <si>
     <t>Para que una variable distribuya normal, el histograma debe tener una forma aproximada de campana, lo que se cumple en la distribucion de notas de la prueba 1, ya que la cantidad de datos que se encuentra a ambos lados del promedio es similar (335 y 308)</t>
   </si>
+  <si>
+    <t>La variable notas de la pruea 1 distribuye normal debido a que la moda, media y mediana se encuentran en los intervalos centrales; esto quiere decir que son similares entre si.</t>
+  </si>
 </sst>
 </file>
 
@@ -363,7 +366,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +468,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -492,7 +502,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -703,11 +713,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -801,46 +830,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -867,6 +875,40 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -874,27 +916,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2203,13 +2330,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>600076</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>181401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>238126</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -2226,8 +2353,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7686675" y="1143426"/>
-          <a:ext cx="4219575" cy="1142574"/>
+          <a:off x="7686676" y="1143426"/>
+          <a:ext cx="4210050" cy="1142574"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2321,6 +2448,11 @@
           </a:pathLst>
         </a:custGeom>
         <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2343,10 +2475,69 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
+          <a:endParaRPr lang="es-ES" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector recto 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF4619C8-3A5A-47B9-BB9E-35E412CD1140}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10077450" y="381000"/>
+          <a:ext cx="9525" cy="3152775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5653,7 +5844,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62EBF7B4-74C6-4E59-8016-F2953B3D095A}" name="TablaDinámica2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62EBF7B4-74C6-4E59-8016-F2953B3D095A}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="E3:F14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0"/>
@@ -5720,24 +5911,12 @@
   <dataFields count="1">
     <dataField name="Cuenta de Prueba 1" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="1">
     <chartFormat chart="2" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="10"/>
           </reference>
         </references>
       </pivotArea>
@@ -6079,8 +6258,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6093,9 +6272,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -6103,50 +6282,50 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="19"/>
@@ -6161,17 +6340,17 @@
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
       <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6184,14 +6363,14 @@
     </row>
     <row r="9" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
@@ -6204,76 +6383,76 @@
       <c r="D11" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="39">
+      <c r="C12" s="52"/>
+      <c r="D12" s="55">
         <f>Desarrollo!C11</f>
         <v>-0.53382388185861629</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39">
+      <c r="C14" s="57"/>
+      <c r="D14" s="55">
         <f>Desarrollo!C12</f>
         <v>0.22413345275494057</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
@@ -6296,91 +6475,91 @@
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="42"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="58"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="69"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="72"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="72"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="75"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
@@ -6408,79 +6587,79 @@
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="69"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="72"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="75"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
@@ -6508,75 +6687,77 @@
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
+      <c r="B38" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="69"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="72"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="75"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
@@ -6604,29 +6785,29 @@
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
@@ -6642,39 +6823,39 @@
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="69"/>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="72"/>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="75"/>
     </row>
     <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
@@ -6690,29 +6871,29 @@
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16"/>
-      <c r="B50" s="48" t="s">
+      <c r="B50" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
     </row>
     <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
@@ -6728,39 +6909,39 @@
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="69"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="72"/>
     </row>
     <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="75"/>
     </row>
     <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
@@ -6773,142 +6954,152 @@
     </row>
     <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16"/>
-      <c r="B57" s="62"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
       <c r="H57" s="4"/>
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
+      <c r="B61" s="86">
+        <f>NORMDIST(4,Desarrollo!C5,Desarrollo!C9,1)-NORMDIST(2,Desarrollo!C5,Desarrollo!C9,1)</f>
+        <v>0.36551837585111896</v>
+      </c>
+      <c r="C61" s="87"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="87"/>
+      <c r="G61" s="87"/>
+      <c r="H61" s="87"/>
+      <c r="I61" s="87"/>
+      <c r="J61" s="88"/>
+    </row>
+    <row r="62" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="89"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
+      <c r="G62" s="90"/>
+      <c r="H62" s="90"/>
+      <c r="I62" s="90"/>
+      <c r="J62" s="91"/>
+    </row>
+    <row r="63" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="92"/>
+      <c r="C63" s="93"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="93"/>
+      <c r="H63" s="93"/>
+      <c r="I63" s="93"/>
+      <c r="J63" s="94"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15"/>
-      <c r="B66" s="48" t="s">
+      <c r="B66" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="48"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
     </row>
     <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
-      <c r="J68" s="50"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="50"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="50"/>
-      <c r="J69" s="50"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
-      <c r="I70" s="50"/>
-      <c r="J70" s="50"/>
+      <c r="B68" s="86">
+        <f>1-NORMDIST(4,Desarrollo!C5,Desarrollo!C9,1)</f>
+        <v>0.613649139047452</v>
+      </c>
+      <c r="C68" s="87"/>
+      <c r="D68" s="87"/>
+      <c r="E68" s="87"/>
+      <c r="F68" s="87"/>
+      <c r="G68" s="87"/>
+      <c r="H68" s="87"/>
+      <c r="I68" s="87"/>
+      <c r="J68" s="88"/>
+    </row>
+    <row r="69" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="89"/>
+      <c r="C69" s="90"/>
+      <c r="D69" s="90"/>
+      <c r="E69" s="90"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="90"/>
+      <c r="I69" s="90"/>
+      <c r="J69" s="91"/>
+    </row>
+    <row r="70" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="92"/>
+      <c r="C70" s="93"/>
+      <c r="D70" s="93"/>
+      <c r="E70" s="93"/>
+      <c r="F70" s="93"/>
+      <c r="G70" s="93"/>
+      <c r="H70" s="93"/>
+      <c r="I70" s="93"/>
+      <c r="J70" s="94"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="29">
-    <mergeCell ref="B59:J60"/>
-    <mergeCell ref="B66:J67"/>
-    <mergeCell ref="B61:J63"/>
-    <mergeCell ref="B68:J70"/>
     <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B18:J19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B21:J24"/>
+    <mergeCell ref="B27:J29"/>
+    <mergeCell ref="B30:J32"/>
     <mergeCell ref="B46:J48"/>
     <mergeCell ref="B53:J55"/>
     <mergeCell ref="B50:J51"/>
@@ -6925,14 +7116,10 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:J13"/>
     <mergeCell ref="E14:J15"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B18:J19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B21:J24"/>
-    <mergeCell ref="B27:J29"/>
-    <mergeCell ref="B30:J32"/>
+    <mergeCell ref="B59:J60"/>
+    <mergeCell ref="B66:J67"/>
+    <mergeCell ref="B61:J63"/>
+    <mergeCell ref="B68:J70"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="1.2204724409448819" bottom="1.0629921259842521" header="0.31496062992125984" footer="0.78740157480314965"/>
@@ -6947,13 +7134,247 @@
     <oddFooter>&amp;C&amp;10Página &amp;P de &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="D12 D14" unlockedFormula="1"/>
+    <ignoredError sqref="D12 D14 B61 B68" unlockedFormula="1"/>
   </ignoredErrors>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D2A1E8-A943-4020-AEE7-986B20EB8557}">
+  <dimension ref="B2:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="76"/>
+      <c r="E3" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="E4" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="77">
+        <v>4.3304821150855375</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="77">
+        <v>4.5121238891421243E-2</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="38">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="78">
+        <v>4.2</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="38">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="78">
+        <v>4.7</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="38">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="77">
+        <v>1.144159318460144</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="38">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="77">
+        <v>1.3091005460191809</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="38">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="77">
+        <v>-0.53382388185861629</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="38">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="77">
+        <v>0.22413345275494057</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="78">
+        <v>5.7</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="38">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="78">
+        <v>1.3</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="38">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="78">
+        <v>2784.5000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="79">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="84"/>
+      <c r="C18" s="80"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="81">
+        <f>ROUND(1+3.3*LOG(C17),0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="80">
+        <f>ROUNDUP(C13/C19,1)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K71"/>
   <sheetViews>
@@ -6971,9 +7392,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -6981,50 +7402,50 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="19"/>
@@ -7039,17 +7460,17 @@
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
       <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7062,14 +7483,14 @@
     </row>
     <row r="9" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
@@ -7082,66 +7503,66 @@
       <c r="D11" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
@@ -7164,29 +7585,29 @@
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="42"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
@@ -7202,51 +7623,51 @@
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
@@ -7274,77 +7695,77 @@
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
@@ -7372,75 +7793,75 @@
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
@@ -7468,29 +7889,29 @@
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
@@ -7506,39 +7927,39 @@
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
     </row>
     <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
@@ -7554,29 +7975,29 @@
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16"/>
-      <c r="B50" s="48" t="s">
+      <c r="B50" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
     </row>
     <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
@@ -7592,39 +8013,39 @@
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
     </row>
     <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
     </row>
     <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
@@ -7647,162 +8068,162 @@
     <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15"/>
-      <c r="B66" s="48" t="s">
+      <c r="B66" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="48"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
     </row>
     <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
-      <c r="J68" s="50"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
     </row>
     <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="50"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="50"/>
-      <c r="J69" s="50"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
-      <c r="I70" s="50"/>
-      <c r="J70" s="50"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B68:J70"/>
+    <mergeCell ref="B59:J60"/>
+    <mergeCell ref="B61:J63"/>
+    <mergeCell ref="B66:J67"/>
+    <mergeCell ref="B53:J55"/>
+    <mergeCell ref="B18:J19"/>
+    <mergeCell ref="B21:J24"/>
+    <mergeCell ref="B27:J29"/>
+    <mergeCell ref="B30:J32"/>
+    <mergeCell ref="B35:J36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:J40"/>
+    <mergeCell ref="B43:J44"/>
+    <mergeCell ref="B46:J48"/>
+    <mergeCell ref="B50:J51"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:J13"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:J15"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:J5"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:J13"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:J15"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:J40"/>
-    <mergeCell ref="B43:J44"/>
-    <mergeCell ref="B46:J48"/>
-    <mergeCell ref="B50:J51"/>
-    <mergeCell ref="B18:J19"/>
-    <mergeCell ref="B21:J24"/>
-    <mergeCell ref="B27:J29"/>
-    <mergeCell ref="B30:J32"/>
-    <mergeCell ref="B35:J36"/>
-    <mergeCell ref="B68:J70"/>
-    <mergeCell ref="B59:J60"/>
-    <mergeCell ref="B61:J63"/>
-    <mergeCell ref="B66:J67"/>
-    <mergeCell ref="B53:J55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:I644"/>
@@ -15323,240 +15744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D2A1E8-A943-4020-AEE7-986B20EB8557}">
-  <dimension ref="B2:F20"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="68"/>
-      <c r="E3" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="E4" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="69">
-        <v>4.3304821150855375</v>
-      </c>
-      <c r="E5" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="63">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="69">
-        <v>4.5121238891421243E-2</v>
-      </c>
-      <c r="E6" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="63">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="66">
-        <v>4.2</v>
-      </c>
-      <c r="E7" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="63">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="66">
-        <v>4.7</v>
-      </c>
-      <c r="E8" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="63">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="69">
-        <v>1.144159318460144</v>
-      </c>
-      <c r="E9" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="63">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="69">
-        <v>1.3091005460191809</v>
-      </c>
-      <c r="E10" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="63">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="69">
-        <v>-0.53382388185861629</v>
-      </c>
-      <c r="E11" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="63">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="69">
-        <v>0.22413345275494057</v>
-      </c>
-      <c r="E12" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="63">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="66">
-        <v>5.7</v>
-      </c>
-      <c r="E13" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="63">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="66">
-        <v>1.3</v>
-      </c>
-      <c r="E14" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="63">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="66">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="66">
-        <v>2784.5000000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="67">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19">
-        <f>ROUND(1+3.3*LOG(C17),0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20">
-        <f>ROUNDUP(C13/C19,1)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FB459640B0867F4A80F45052C31197CE" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="63df99b9cde003c7a0d8379f430065aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d45290b7f7c720e3db0a128a19431186">
     <xsd:element name="properties">
@@ -15605,6 +15793,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -15615,20 +15809,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1316A139-F560-4BCD-B3F6-8A9858A38687}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EB86724-E086-4661-9DF5-75093545572A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15643,6 +15823,20 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1316A139-F560-4BCD-B3F6-8A9858A38687}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{036ACCE0-27DF-4C6E-93A3-D2F296088C86}">
   <ds:schemaRefs>
